--- a/others/tagsUsed.xlsx
+++ b/others/tagsUsed.xlsx
@@ -1546,7 +1546,7 @@
   <dimension ref="A1:A36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1737,5 +1737,6 @@
   </sheetData>
   <autoFilter ref="A1:A46"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>